--- a/VL_accounts/Lab Assignment UOB Workshop 16-17 Dec.xlsx
+++ b/VL_accounts/Lab Assignment UOB Workshop 16-17 Dec.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smyhxt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D33C2D2-FF1C-411C-8D58-AF8BD712017F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE16DD41-545A-4501-A3AD-31ADF05E7101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8E1BABC-6C6A-450D-95CB-4DB0F688AF67}"/>
+    <workbookView xWindow="-28920" yWindow="-3720" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B8E1BABC-6C6A-450D-95CB-4DB0F688AF67}"/>
   </bookViews>
   <sheets>
     <sheet name="ONSITE AM" sheetId="1" r:id="rId1"/>
     <sheet name="ONSITE PM" sheetId="3" r:id="rId2"/>
     <sheet name="REMOTE AM" sheetId="2" r:id="rId3"/>
     <sheet name="REMOTE PM" sheetId="4" r:id="rId4"/>
+    <sheet name="Backup" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="144">
   <si>
     <t>No.</t>
   </si>
@@ -450,6 +451,27 @@
   </si>
   <si>
     <t>Nilam Ahmad</t>
+  </si>
+  <si>
+    <t>azureger010353</t>
+  </si>
+  <si>
+    <t>azureuse010127</t>
+  </si>
+  <si>
+    <t>azureuse010438</t>
+  </si>
+  <si>
+    <t>azureuse010481</t>
+  </si>
+  <si>
+    <t>azureuse010319</t>
+  </si>
+  <si>
+    <t>azureuse010442</t>
+  </si>
+  <si>
+    <t>BACKUP</t>
   </si>
 </sst>
 </file>
@@ -677,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -720,21 +742,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8408276F-B0AF-4CDE-8D01-04B172967ACF}">
   <dimension ref="A2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1075,7 +1093,7 @@
       <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="18"/>
@@ -1085,7 +1103,7 @@
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="15"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -1111,7 +1129,7 @@
       <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -1135,7 +1153,7 @@
       <c r="F5" s="13">
         <v>45643</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -1161,12 +1179,12 @@
       <c r="F6" s="13">
         <v>45643</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
@@ -1267,12 +1285,12 @@
       <c r="F10" s="13">
         <v>45643</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
@@ -1293,7 +1311,7 @@
       <c r="F11" s="13">
         <v>45643</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="17" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="18"/>
@@ -1321,7 +1339,7 @@
       <c r="F12" s="13">
         <v>45643</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -1347,7 +1365,7 @@
       <c r="F13" s="13">
         <v>45643</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -1373,12 +1391,12 @@
       <c r="F14" s="13">
         <v>45643</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="17"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
@@ -1399,11 +1417,6 @@
       <c r="F15" s="13">
         <v>45643</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
@@ -1424,12 +1437,12 @@
       <c r="F16" s="13">
         <v>45643</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="17"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
@@ -1450,12 +1463,12 @@
       <c r="F17" s="13">
         <v>45643</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="17"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
@@ -1476,12 +1489,12 @@
       <c r="F18" s="13">
         <v>45643</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="17"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1498,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8743F73B-37F3-41D9-8C8F-4B20D6EDACD9}">
   <dimension ref="A2:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1524,7 +1537,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="18"/>
@@ -1552,7 +1565,7 @@
       <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -1565,18 +1578,18 @@
         <v>70</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E5" s="13">
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="F5" s="13">
         <v>45643</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -1602,7 +1615,7 @@
       <c r="F6" s="13">
         <v>45643</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
@@ -1628,12 +1641,12 @@
       <c r="F7" s="13">
         <v>45643</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
@@ -1716,12 +1729,12 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H11" s="16"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H12" s="18" t="s">
@@ -1780,7 +1793,7 @@
   <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:M15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1803,7 +1816,7 @@
       <c r="B2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="18"/>
@@ -1813,7 +1826,7 @@
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="15"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -1839,7 +1852,7 @@
       <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -1863,7 +1876,7 @@
       <c r="F5" s="13">
         <v>45643</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -1889,12 +1902,12 @@
       <c r="F6" s="13">
         <v>45643</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
@@ -1995,12 +2008,12 @@
       <c r="F10" s="13">
         <v>45643</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
@@ -2489,7 +2502,7 @@
   <dimension ref="A2:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2514,7 +2527,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="18"/>
@@ -2542,7 +2555,7 @@
       <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -2555,18 +2568,18 @@
         <v>70</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E5" s="13">
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="F5" s="13">
         <v>45643</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -2592,7 +2605,7 @@
       <c r="F6" s="13">
         <v>45643</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
@@ -2618,12 +2631,12 @@
       <c r="F7" s="13">
         <v>45643</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
@@ -2724,12 +2737,12 @@
       <c r="F11" s="13">
         <v>45643</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
@@ -2968,4 +2981,213 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEF0ACD-4E43-4767-BF37-81B1D7D598E2}">
+  <dimension ref="A2:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="40.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="6.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>61</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13">
+        <v>45642</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45643</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>62</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13">
+        <v>45642</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45643</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>63</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13">
+        <v>45642</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45643</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>64</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="13">
+        <v>45642</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45643</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>65</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="13">
+        <v>45642</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45643</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H3:M5"/>
+    <mergeCell ref="H7:M9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VL_accounts/Lab Assignment UOB Workshop 16-17 Dec.xlsx
+++ b/VL_accounts/Lab Assignment UOB Workshop 16-17 Dec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smyhxt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pop/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE16DD41-545A-4501-A3AD-31ADF05E7101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A6D27B-F54E-6644-9593-056C5304ABCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3720" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B8E1BABC-6C6A-450D-95CB-4DB0F688AF67}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" activeTab="4" xr2:uid="{B8E1BABC-6C6A-450D-95CB-4DB0F688AF67}"/>
   </bookViews>
   <sheets>
     <sheet name="ONSITE AM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="149">
   <si>
     <t>No.</t>
   </si>
@@ -58,427 +58,442 @@
     <t>End Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Go to https://razergergw1.sas.com/guacamole , then look for the lab credential assigned under your name, log on. </t>
-  </si>
-  <si>
-    <t>If you have issues with accessing the URL, please try the following instead: https://razergergw2.sas.com/guacamole</t>
+    <t>3769073_SG</t>
+  </si>
+  <si>
+    <t>azureuse010048</t>
+  </si>
+  <si>
+    <t>azureuse010199</t>
+  </si>
+  <si>
+    <t>azureuse010078</t>
+  </si>
+  <si>
+    <t>azureuse010423</t>
+  </si>
+  <si>
+    <t>azureuse010345</t>
+  </si>
+  <si>
+    <t>azureuse010474</t>
+  </si>
+  <si>
+    <t>azureuse010066</t>
+  </si>
+  <si>
+    <t>azureuse020343</t>
+  </si>
+  <si>
+    <t>azureuse020162</t>
+  </si>
+  <si>
+    <t>azureuse020255</t>
+  </si>
+  <si>
+    <t>azureuse020118</t>
+  </si>
+  <si>
+    <t>azureuse010008</t>
+  </si>
+  <si>
+    <t>azureuse010216</t>
+  </si>
+  <si>
+    <t>azureuse010287</t>
+  </si>
+  <si>
+    <t>azureuse010375</t>
+  </si>
+  <si>
+    <t>azureuse010380</t>
+  </si>
+  <si>
+    <t>azureuse020290</t>
+  </si>
+  <si>
+    <t>azureuse020359</t>
+  </si>
+  <si>
+    <t>azureuse020112</t>
+  </si>
+  <si>
+    <t>azureuse020287</t>
+  </si>
+  <si>
+    <t>azureuse010419</t>
+  </si>
+  <si>
+    <t>azureuse010492</t>
+  </si>
+  <si>
+    <t>azureuse010181</t>
+  </si>
+  <si>
+    <t>azureuse010227</t>
+  </si>
+  <si>
+    <t>azureuse010110</t>
+  </si>
+  <si>
+    <t>azureuse010189</t>
+  </si>
+  <si>
+    <t>azureuse020049</t>
+  </si>
+  <si>
+    <t>azureuse020159</t>
+  </si>
+  <si>
+    <t>azureuse020299</t>
+  </si>
+  <si>
+    <t>azureuse020389</t>
+  </si>
+  <si>
+    <t>azureuse010141</t>
+  </si>
+  <si>
+    <t>azureuse010117</t>
+  </si>
+  <si>
+    <t>azureuse010285</t>
+  </si>
+  <si>
+    <t>azureuse010195</t>
+  </si>
+  <si>
+    <t>azureuse010147</t>
+  </si>
+  <si>
+    <t>azureuse020331</t>
+  </si>
+  <si>
+    <t>azureuse020353</t>
+  </si>
+  <si>
+    <t>azureuse020098</t>
+  </si>
+  <si>
+    <t>azureuse020150</t>
+  </si>
+  <si>
+    <t>azureuse010429</t>
+  </si>
+  <si>
+    <t>azureuse010486</t>
+  </si>
+  <si>
+    <t>azureuse010211</t>
+  </si>
+  <si>
+    <t>azureuse010225</t>
+  </si>
+  <si>
+    <t>azureuse010465</t>
+  </si>
+  <si>
+    <t>azureuse020022</t>
+  </si>
+  <si>
+    <t>azureuse020060</t>
+  </si>
+  <si>
+    <t>azureuse020005</t>
+  </si>
+  <si>
+    <t>azureuse020318</t>
+  </si>
+  <si>
+    <t>azureuse010198</t>
+  </si>
+  <si>
+    <t>azureuse010270</t>
+  </si>
+  <si>
+    <t>azureuse010357</t>
+  </si>
+  <si>
+    <t>azureuse010159</t>
+  </si>
+  <si>
+    <t>azureuse010012</t>
+  </si>
+  <si>
+    <t>azureuse020165</t>
+  </si>
+  <si>
+    <t>azureuse020121</t>
+  </si>
+  <si>
+    <t>azureuse020396</t>
+  </si>
+  <si>
+    <t>azureuse020110</t>
+  </si>
+  <si>
+    <t>azureuse010321</t>
+  </si>
+  <si>
+    <t>azureuse010410</t>
+  </si>
+  <si>
+    <t>azureuse010167</t>
+  </si>
+  <si>
+    <t>INSTRUCTOR (DR PEERAPON)</t>
+  </si>
+  <si>
+    <t>ONSITE AM SESSION</t>
+  </si>
+  <si>
+    <t>VO Thi Thuy An</t>
+  </si>
+  <si>
+    <t>Nguyen Phu Sang</t>
+  </si>
+  <si>
+    <t>Pham Nhu Quynh</t>
+  </si>
+  <si>
+    <t>Doan Thanh Hung</t>
+  </si>
+  <si>
+    <t>Hoang Tien Dat</t>
+  </si>
+  <si>
+    <t>Mai Thi Lam Vy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pham Minh Tu </t>
+  </si>
+  <si>
+    <t>Bach Ngoc Hai Dang</t>
+  </si>
+  <si>
+    <t>Nguyen Minh Tuan</t>
+  </si>
+  <si>
+    <t>Duong Ngoc Minh</t>
+  </si>
+  <si>
+    <t>Ta Linh Trang</t>
+  </si>
+  <si>
+    <t>azureger010440</t>
+  </si>
+  <si>
+    <t>MA0007106a</t>
+  </si>
+  <si>
+    <t>Le Nguyen Bao Chau</t>
+  </si>
+  <si>
+    <t>Huynh Thi My Linh</t>
+  </si>
+  <si>
+    <t>Hoang Thi My Hang</t>
+  </si>
+  <si>
+    <t>Dang Thi Thanh Dung</t>
+  </si>
+  <si>
+    <t>Luong Giang Thanh</t>
+  </si>
+  <si>
+    <t>Park Junho</t>
+  </si>
+  <si>
+    <t>Matthew Kong</t>
+  </si>
+  <si>
+    <t>Teh Ching Woon</t>
+  </si>
+  <si>
+    <t>Chee Fong Chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wong Yeong Ni </t>
+  </si>
+  <si>
+    <t>Tee Yee Yang</t>
+  </si>
+  <si>
+    <t>RISHABH TIWARI</t>
+  </si>
+  <si>
+    <t>Dawid KABZINSKI</t>
+  </si>
+  <si>
+    <t>mary jane tajodloy</t>
+  </si>
+  <si>
+    <t>Madhur</t>
+  </si>
+  <si>
+    <t>Shardendu PANDEY</t>
+  </si>
+  <si>
+    <t>Jorasmi Gagarin</t>
+  </si>
+  <si>
+    <t>Vijay Kumar BUCHETI</t>
+  </si>
+  <si>
+    <t>Tan Han Meng</t>
+  </si>
+  <si>
+    <t>Derick Sin</t>
+  </si>
+  <si>
+    <t>Arianto Hidayat</t>
+  </si>
+  <si>
+    <t>Mandy Tan</t>
+  </si>
+  <si>
+    <t>Melvyn Li</t>
+  </si>
+  <si>
+    <t>Vu Anh Thu</t>
+  </si>
+  <si>
+    <t>Le Thi Ngoc</t>
+  </si>
+  <si>
+    <t>Do Viet Thai Binh</t>
+  </si>
+  <si>
+    <t>Pham Minh Thanh</t>
+  </si>
+  <si>
+    <t>Mai Thu Ha</t>
+  </si>
+  <si>
+    <t>Chris Tee</t>
+  </si>
+  <si>
+    <t>Tang Wei Mun</t>
+  </si>
+  <si>
+    <t>Loh Choon Lay</t>
+  </si>
+  <si>
+    <t>Kwek Sok Chin</t>
+  </si>
+  <si>
+    <t>Wendy Tay</t>
+  </si>
+  <si>
+    <t>Jonathan Siu</t>
+  </si>
+  <si>
+    <t>ONSITE PM SESSION</t>
+  </si>
+  <si>
+    <t>REMOTE AM SESSION</t>
+  </si>
+  <si>
+    <t>REMOTE PM SESSION</t>
+  </si>
+  <si>
+    <t>Dujdao Komonweerakate</t>
+  </si>
+  <si>
+    <t>Nach Aroonrerk</t>
+  </si>
+  <si>
+    <t>Tran Thanh Binh</t>
+  </si>
+  <si>
+    <t>Le Thi Anh Thu</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Bich Ngan</t>
+  </si>
+  <si>
+    <t>Dang Tran Kim Chi</t>
+  </si>
+  <si>
+    <t>Nguyen Dang Son</t>
+  </si>
+  <si>
+    <t>Tran Thi Hong Diem</t>
+  </si>
+  <si>
+    <t>Tran Van Tai</t>
+  </si>
+  <si>
+    <t>Ho Ngoc Hung</t>
+  </si>
+  <si>
+    <t>Le Quynh Nhu</t>
+  </si>
+  <si>
+    <t>Cao Huy</t>
+  </si>
+  <si>
+    <t>Khoo Hui Chee</t>
+  </si>
+  <si>
+    <t>Frannie Lam Guat Bee</t>
+  </si>
+  <si>
+    <t>Nilam Ahmad</t>
+  </si>
+  <si>
+    <t>azureger010353</t>
+  </si>
+  <si>
+    <t>azureuse010127</t>
+  </si>
+  <si>
+    <t>azureuse010438</t>
+  </si>
+  <si>
+    <t>azureuse010481</t>
+  </si>
+  <si>
+    <t>azureuse010319</t>
+  </si>
+  <si>
+    <t>azureuse010442</t>
+  </si>
+  <si>
+    <t>BACKUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to https://labs.liveweb.sas.com/logon/LogonPoint/ , then look for the lab credential assigned under your name, log on. </t>
   </si>
   <si>
     <t>Note: To disconnect from your session, please execute the following:
-o	Select the Ctrl-Alt-Shift buttons within your window 
-o	In the left pane, select the Username and then Logout</t>
-  </si>
-  <si>
-    <t>3769073_SG</t>
-  </si>
-  <si>
-    <t>azureuse010048</t>
-  </si>
-  <si>
-    <t>azureuse010199</t>
-  </si>
-  <si>
-    <t>azureuse010078</t>
-  </si>
-  <si>
-    <t>azureuse010423</t>
-  </si>
-  <si>
-    <t>azureuse010345</t>
-  </si>
-  <si>
-    <t>azureuse010474</t>
-  </si>
-  <si>
-    <t>azureuse010066</t>
-  </si>
-  <si>
-    <t>azureuse020343</t>
-  </si>
-  <si>
-    <t>azureuse020162</t>
-  </si>
-  <si>
-    <t>azureuse020255</t>
-  </si>
-  <si>
-    <t>azureuse020118</t>
-  </si>
-  <si>
-    <t>azureuse010008</t>
-  </si>
-  <si>
-    <t>azureuse010216</t>
-  </si>
-  <si>
-    <t>azureuse010287</t>
-  </si>
-  <si>
-    <t>azureuse010375</t>
-  </si>
-  <si>
-    <t>azureuse010380</t>
-  </si>
-  <si>
-    <t>azureuse020290</t>
-  </si>
-  <si>
-    <t>azureuse020359</t>
-  </si>
-  <si>
-    <t>azureuse020112</t>
-  </si>
-  <si>
-    <t>azureuse020287</t>
-  </si>
-  <si>
-    <t>azureuse010419</t>
-  </si>
-  <si>
-    <t>azureuse010492</t>
-  </si>
-  <si>
-    <t>azureuse010181</t>
-  </si>
-  <si>
-    <t>azureuse010227</t>
-  </si>
-  <si>
-    <t>azureuse010110</t>
-  </si>
-  <si>
-    <t>azureuse010189</t>
-  </si>
-  <si>
-    <t>azureuse020049</t>
-  </si>
-  <si>
-    <t>azureuse020159</t>
-  </si>
-  <si>
-    <t>azureuse020299</t>
-  </si>
-  <si>
-    <t>azureuse020389</t>
-  </si>
-  <si>
-    <t>azureuse010141</t>
-  </si>
-  <si>
-    <t>azureuse010117</t>
-  </si>
-  <si>
-    <t>azureuse010285</t>
-  </si>
-  <si>
-    <t>azureuse010195</t>
-  </si>
-  <si>
-    <t>azureuse010147</t>
-  </si>
-  <si>
-    <t>azureuse020331</t>
-  </si>
-  <si>
-    <t>azureuse020353</t>
-  </si>
-  <si>
-    <t>azureuse020098</t>
-  </si>
-  <si>
-    <t>azureuse020150</t>
-  </si>
-  <si>
-    <t>azureuse010429</t>
-  </si>
-  <si>
-    <t>azureuse010486</t>
-  </si>
-  <si>
-    <t>azureuse010211</t>
-  </si>
-  <si>
-    <t>azureuse010225</t>
-  </si>
-  <si>
-    <t>azureuse010465</t>
-  </si>
-  <si>
-    <t>azureuse020022</t>
-  </si>
-  <si>
-    <t>azureuse020060</t>
-  </si>
-  <si>
-    <t>azureuse020005</t>
-  </si>
-  <si>
-    <t>azureuse020318</t>
-  </si>
-  <si>
-    <t>azureuse010198</t>
-  </si>
-  <si>
-    <t>azureuse010270</t>
-  </si>
-  <si>
-    <t>azureuse010357</t>
-  </si>
-  <si>
-    <t>azureuse010159</t>
-  </si>
-  <si>
-    <t>azureuse010012</t>
-  </si>
-  <si>
-    <t>azureuse020165</t>
-  </si>
-  <si>
-    <t>azureuse020121</t>
-  </si>
-  <si>
-    <t>azureuse020396</t>
-  </si>
-  <si>
-    <t>azureuse020110</t>
-  </si>
-  <si>
-    <t>azureuse010321</t>
-  </si>
-  <si>
-    <t>azureuse010410</t>
-  </si>
-  <si>
-    <t>azureuse010167</t>
-  </si>
-  <si>
-    <t>INSTRUCTOR (DR PEERAPON)</t>
-  </si>
-  <si>
-    <t>ONSITE AM SESSION</t>
-  </si>
-  <si>
-    <t>VO Thi Thuy An</t>
-  </si>
-  <si>
-    <t>Nguyen Phu Sang</t>
-  </si>
-  <si>
-    <t>Pham Nhu Quynh</t>
-  </si>
-  <si>
-    <t>Doan Thanh Hung</t>
-  </si>
-  <si>
-    <t>Hoang Tien Dat</t>
-  </si>
-  <si>
-    <t>Mai Thi Lam Vy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pham Minh Tu </t>
-  </si>
-  <si>
-    <t>Bach Ngoc Hai Dang</t>
-  </si>
-  <si>
-    <t>Nguyen Minh Tuan</t>
-  </si>
-  <si>
-    <t>Duong Ngoc Minh</t>
-  </si>
-  <si>
-    <t>Ta Linh Trang</t>
-  </si>
-  <si>
-    <t>azureger010440</t>
-  </si>
-  <si>
-    <t>MA0007106a</t>
-  </si>
-  <si>
-    <t>Le Nguyen Bao Chau</t>
-  </si>
-  <si>
-    <t>Huynh Thi My Linh</t>
-  </si>
-  <si>
-    <t>Hoang Thi My Hang</t>
-  </si>
-  <si>
-    <t>Dang Thi Thanh Dung</t>
-  </si>
-  <si>
-    <t>Luong Giang Thanh</t>
-  </si>
-  <si>
-    <t>Park Junho</t>
-  </si>
-  <si>
-    <t>Matthew Kong</t>
-  </si>
-  <si>
-    <t>Teh Ching Woon</t>
-  </si>
-  <si>
-    <t>Chee Fong Chan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wong Yeong Ni </t>
-  </si>
-  <si>
-    <t>Tee Yee Yang</t>
-  </si>
-  <si>
-    <t>RISHABH TIWARI</t>
-  </si>
-  <si>
-    <t>Dawid KABZINSKI</t>
-  </si>
-  <si>
-    <t>mary jane tajodloy</t>
-  </si>
-  <si>
-    <t>Madhur</t>
-  </si>
-  <si>
-    <t>Shardendu PANDEY</t>
-  </si>
-  <si>
-    <t>Jorasmi Gagarin</t>
-  </si>
-  <si>
-    <t>Vijay Kumar BUCHETI</t>
-  </si>
-  <si>
-    <t>Tan Han Meng</t>
-  </si>
-  <si>
-    <t>Derick Sin</t>
-  </si>
-  <si>
-    <t>Arianto Hidayat</t>
-  </si>
-  <si>
-    <t>Mandy Tan</t>
-  </si>
-  <si>
-    <t>Melvyn Li</t>
-  </si>
-  <si>
-    <t>Vu Anh Thu</t>
-  </si>
-  <si>
-    <t>Le Thi Ngoc</t>
-  </si>
-  <si>
-    <t>Do Viet Thai Binh</t>
-  </si>
-  <si>
-    <t>Pham Minh Thanh</t>
-  </si>
-  <si>
-    <t>Mai Thu Ha</t>
-  </si>
-  <si>
-    <t>Chris Tee</t>
-  </si>
-  <si>
-    <t>Tang Wei Mun</t>
-  </si>
-  <si>
-    <t>Loh Choon Lay</t>
-  </si>
-  <si>
-    <t>Kwek Sok Chin</t>
-  </si>
-  <si>
-    <t>Wendy Tay</t>
-  </si>
-  <si>
-    <t>Jonathan Siu</t>
-  </si>
-  <si>
-    <t>ONSITE PM SESSION</t>
-  </si>
-  <si>
-    <t>REMOTE AM SESSION</t>
-  </si>
-  <si>
-    <t>REMOTE PM SESSION</t>
-  </si>
-  <si>
-    <t>Dujdao Komonweerakate</t>
-  </si>
-  <si>
-    <t>Nach Aroonrerk</t>
-  </si>
-  <si>
-    <t>Tran Thanh Binh</t>
-  </si>
-  <si>
-    <t>Le Thi Anh Thu</t>
-  </si>
-  <si>
-    <t>Nguyen Thi Bich Ngan</t>
-  </si>
-  <si>
-    <t>Dang Tran Kim Chi</t>
-  </si>
-  <si>
-    <t>Nguyen Dang Son</t>
-  </si>
-  <si>
-    <t>Tran Thi Hong Diem</t>
-  </si>
-  <si>
-    <t>Tran Van Tai</t>
-  </si>
-  <si>
-    <t>Ho Ngoc Hung</t>
-  </si>
-  <si>
-    <t>Le Quynh Nhu</t>
-  </si>
-  <si>
-    <t>Cao Huy</t>
-  </si>
-  <si>
-    <t>Khoo Hui Chee</t>
-  </si>
-  <si>
-    <t>Frannie Lam Guat Bee</t>
-  </si>
-  <si>
-    <t>Nilam Ahmad</t>
-  </si>
-  <si>
-    <t>azureger010353</t>
-  </si>
-  <si>
-    <t>azureuse010127</t>
-  </si>
-  <si>
-    <t>azureuse010438</t>
-  </si>
-  <si>
-    <t>azureuse010481</t>
-  </si>
-  <si>
-    <t>azureuse010319</t>
-  </si>
-  <si>
-    <t>azureuse010442</t>
-  </si>
-  <si>
-    <t>BACKUP</t>
+o	click start, select log off 
+o	at the home screen, expand arrow upper right -&gt; log off</t>
+  </si>
+  <si>
+    <t>For instructor AM ONLY: https://razergergw1.sas.com/guacamole</t>
+  </si>
+  <si>
+    <t>instructor1</t>
+  </si>
+  <si>
+    <t>instructor2</t>
+  </si>
+  <si>
+    <t>Nurul</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Reserved </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +546,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +578,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -752,6 +782,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,31 +1106,37 @@
   <dimension ref="A2:M18"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="H11" sqref="H11:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="40.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="40.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="6.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="6.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="H2" s="17" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -1102,7 +1144,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -1110,7 +1152,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="23.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="23.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1136,16 +1178,16 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="23.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="13">
         <v>45639</v>
@@ -1160,18 +1202,18 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="13">
         <v>45642</v>
@@ -1186,18 +1228,18 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="13">
         <v>45642</v>
@@ -1205,27 +1247,25 @@
       <c r="F7" s="13">
         <v>45643</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="13">
         <v>45642</v>
@@ -1240,18 +1280,18 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="13">
         <v>45642</v>
@@ -1266,18 +1306,18 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>5</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="13">
         <v>45642</v>
@@ -1292,18 +1332,18 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>6</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" s="13">
         <v>45642</v>
@@ -1312,7 +1352,7 @@
         <v>45643</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1320,18 +1360,18 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" s="13">
         <v>45642</v>
@@ -1346,18 +1386,18 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" s="13">
         <v>45642</v>
@@ -1372,18 +1412,18 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14" s="13">
         <v>45642</v>
@@ -1398,18 +1438,18 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" s="13">
         <v>45642</v>
@@ -1418,18 +1458,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" s="13">
         <v>45642</v>
@@ -1444,18 +1484,18 @@
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" s="13">
         <v>45642</v>
@@ -1470,18 +1510,18 @@
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
     </row>
-    <row r="18" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>13</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E18" s="13">
         <v>45642</v>
@@ -1497,10 +1537,11 @@
       <c r="M18" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H2:M5"/>
     <mergeCell ref="H7:M9"/>
     <mergeCell ref="H11:M13"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
@@ -1512,33 +1553,33 @@
   <dimension ref="A2:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H12" sqref="H12:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="40.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="40.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="6.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="6.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -1546,7 +1587,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1572,16 +1613,16 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="13">
         <v>45642</v>
@@ -1596,18 +1637,18 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>14</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="13">
         <v>45642</v>
@@ -1622,18 +1663,18 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>15</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="13">
         <v>45642</v>
@@ -1648,18 +1689,18 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="13">
         <v>45642</v>
@@ -1667,27 +1708,25 @@
       <c r="F8" s="13">
         <v>45643</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>17</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="13">
         <v>45642</v>
@@ -1702,18 +1741,18 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="13">
         <v>45642</v>
@@ -1728,7 +1767,7 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -1736,9 +1775,9 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="18" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -1746,7 +1785,7 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -1754,7 +1793,7 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -1762,7 +1801,7 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -1770,7 +1809,7 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -1793,31 +1832,31 @@
   <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H11" sqref="H11:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="40.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="40.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="6.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="6.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -1825,7 +1864,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -1833,7 +1872,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="21.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1859,16 +1898,16 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="21.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="13">
         <v>45639</v>
@@ -1883,18 +1922,18 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>19</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="13">
         <v>45642</v>
@@ -1909,18 +1948,18 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>20</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="13">
         <v>45642</v>
@@ -1928,27 +1967,25 @@
       <c r="F7" s="13">
         <v>45643</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>21</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="13">
         <v>45642</v>
@@ -1963,18 +2000,18 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>22</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="13">
         <v>45642</v>
@@ -1989,18 +2026,18 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>23</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="13">
         <v>45642</v>
@@ -2015,18 +2052,18 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>24</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" s="13">
         <v>45642</v>
@@ -2035,7 +2072,7 @@
         <v>45643</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -2043,18 +2080,18 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>25</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" s="13">
         <v>45642</v>
@@ -2069,18 +2106,18 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>26</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" s="13">
         <v>45642</v>
@@ -2095,18 +2132,18 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>27</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14" s="13">
         <v>45642</v>
@@ -2121,18 +2158,18 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>28</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" s="13">
         <v>45642</v>
@@ -2147,18 +2184,18 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>29</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" s="13">
         <v>45642</v>
@@ -2167,18 +2204,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>30</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" s="13">
         <v>45642</v>
@@ -2187,18 +2224,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>31</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E18" s="13">
         <v>45642</v>
@@ -2207,18 +2244,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>32</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19" s="13">
         <v>45642</v>
@@ -2227,18 +2264,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>33</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E20" s="13">
         <v>45642</v>
@@ -2247,18 +2284,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>34</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E21" s="13">
         <v>45642</v>
@@ -2267,18 +2304,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>35</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22" s="13">
         <v>45642</v>
@@ -2287,18 +2324,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>36</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E23" s="13">
         <v>45642</v>
@@ -2307,18 +2344,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24" s="13">
         <v>45642</v>
@@ -2327,18 +2364,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>38</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E25" s="13">
         <v>45642</v>
@@ -2347,18 +2384,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>39</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E26" s="13">
         <v>45642</v>
@@ -2367,18 +2404,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>40</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" s="13">
         <v>45642</v>
@@ -2387,18 +2424,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>41</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E28" s="13">
         <v>45642</v>
@@ -2407,18 +2444,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>42</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29" s="13">
         <v>45642</v>
@@ -2427,18 +2464,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>43</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E30" s="13">
         <v>45642</v>
@@ -2447,18 +2484,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>44</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E31" s="13">
         <v>45642</v>
@@ -2467,18 +2504,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>45</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E32" s="13">
         <v>45642</v>
@@ -2502,33 +2539,33 @@
   <dimension ref="A2:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="40.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="40.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="6.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="6.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="17" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2536,7 +2573,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="21.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2562,16 +2599,16 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="21.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="13">
         <v>45642</v>
@@ -2586,18 +2623,18 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>46</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="13">
         <v>45642</v>
@@ -2612,18 +2649,18 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>47</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="13">
         <v>45642</v>
@@ -2638,18 +2675,18 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>48</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="13">
         <v>45642</v>
@@ -2657,27 +2694,25 @@
       <c r="F8" s="13">
         <v>45643</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>49</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="13">
         <v>45642</v>
@@ -2692,18 +2727,18 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>50</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="13">
         <v>45642</v>
@@ -2718,18 +2753,18 @@
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" s="13">
         <v>45642</v>
@@ -2744,18 +2779,18 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>52</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" s="13">
         <v>45642</v>
@@ -2764,7 +2799,7 @@
         <v>45643</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -2772,18 +2807,18 @@
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>53</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" s="13">
         <v>45642</v>
@@ -2798,18 +2833,18 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>54</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14" s="13">
         <v>45642</v>
@@ -2824,18 +2859,18 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>55</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" s="13">
         <v>45642</v>
@@ -2850,18 +2885,18 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>56</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" s="13">
         <v>45642</v>
@@ -2876,18 +2911,18 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>57</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" s="13">
         <v>45642</v>
@@ -2896,18 +2931,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E18" s="13">
         <v>45642</v>
@@ -2916,18 +2951,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19" s="13">
         <v>45642</v>
@@ -2936,18 +2971,18 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>60</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E20" s="13">
         <v>45642</v>
@@ -2956,23 +2991,23 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H3:M6"/>
@@ -2988,31 +3023,31 @@
   <dimension ref="A2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="40.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="40.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="6.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="6.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -3020,7 +3055,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="21.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3046,16 +3081,18 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="21.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>61</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="C5" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="13">
         <v>45642</v>
@@ -3070,16 +3107,18 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>62</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="C6" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="13">
         <v>45642</v>
@@ -3094,16 +3133,18 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>63</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="C7" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="13">
         <v>45642</v>
@@ -3118,16 +3159,18 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>64</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="C8" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="13">
         <v>45642</v>
@@ -3142,16 +3185,18 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>65</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="C9" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="13">
         <v>45642</v>
@@ -3166,23 +3211,23 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="21.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H3:M5"/>
